--- a/files/Modules.xlsx
+++ b/files/Modules.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23808"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Latitude\Downloads\XML\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="117" documentId="11_93701D32C19568BBA0DE0AC1B1BDA2B12FC29D91" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7FC6E2F5-82B0-4DC9-971D-A807AADA43CD}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17784" windowHeight="5328"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17784" windowHeight="5328" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,262 +33,349 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="108">
   <si>
     <t>ModuleName</t>
   </si>
   <si>
+    <t>ModuleSym</t>
+  </si>
+  <si>
     <t>ElementModule1</t>
   </si>
   <si>
+    <t>ElementModule1Sym</t>
+  </si>
+  <si>
     <t>ElementModule2</t>
   </si>
   <si>
+    <t>ElementModule2Sym</t>
+  </si>
+  <si>
+    <t>DeprAttachement</t>
+  </si>
+  <si>
+    <t>ProfElement1</t>
+  </si>
+  <si>
+    <t>ProfElement2</t>
+  </si>
+  <si>
     <t>Programmation orientée objet &amp; XML</t>
   </si>
   <si>
+    <t>GINF21</t>
+  </si>
+  <si>
     <t>Programmation orientée objet:Java</t>
   </si>
   <si>
+    <t>GINF21A</t>
+  </si>
+  <si>
     <t>XML &amp; Applications</t>
   </si>
   <si>
+    <t>GINF21B</t>
+  </si>
+  <si>
     <t>SIC</t>
   </si>
   <si>
+    <t>Ghyslaine Parmentier</t>
+  </si>
+  <si>
+    <t>Flora Fournier</t>
+  </si>
+  <si>
     <t>Qualité &amp; approche processus</t>
   </si>
   <si>
+    <t>GINF22</t>
+  </si>
+  <si>
     <t>Assurance contrôle qualité (ISO 9001)</t>
   </si>
   <si>
+    <t>GINF221</t>
+  </si>
+  <si>
     <t>Cycle de vie logiciel et méthodes agiles</t>
   </si>
   <si>
+    <t>GINF222</t>
+  </si>
+  <si>
+    <t>Éloïse Hébras</t>
+  </si>
+  <si>
+    <t>Sabine Auclair</t>
+  </si>
+  <si>
     <t>Modélisation orientée objet &amp; IHM</t>
   </si>
   <si>
+    <t>GINF23</t>
+  </si>
+  <si>
     <t>Modélisation orientée objet UML</t>
   </si>
   <si>
+    <t>GINF231</t>
+  </si>
+  <si>
     <t>Interface Homme Machine</t>
   </si>
   <si>
+    <t>GINF232</t>
+  </si>
+  <si>
     <t>MI</t>
   </si>
   <si>
+    <t>Régine Genest</t>
+  </si>
+  <si>
+    <t>Yvonne Hachette</t>
+  </si>
+  <si>
     <t>Bases de données avancées 1</t>
   </si>
   <si>
+    <t>GINF24</t>
+  </si>
+  <si>
     <t>Optimisation et quaité de base de données</t>
   </si>
   <si>
+    <t>GINF241</t>
+  </si>
+  <si>
     <t>Base de donées NoSQL</t>
   </si>
   <si>
+    <t>GINF242</t>
+  </si>
+  <si>
+    <t>Poulin Manaudou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaëtan Manaudo </t>
+  </si>
+  <si>
     <t>Administration et programmation systéme</t>
   </si>
   <si>
+    <t>GINF25</t>
+  </si>
+  <si>
     <t>Administration systéme</t>
   </si>
   <si>
+    <t>GINF251</t>
+  </si>
+  <si>
     <t>Programmation systéme</t>
   </si>
   <si>
+    <t>GINF252</t>
+  </si>
+  <si>
+    <t>Alexis Vigouroux</t>
+  </si>
+  <si>
+    <t>Maurice Jacquier</t>
+  </si>
+  <si>
     <t xml:space="preserve">Langues et Communication 2 </t>
   </si>
   <si>
+    <t>GINF26</t>
+  </si>
+  <si>
     <t>Espagnol 2, allemand</t>
   </si>
   <si>
+    <t>GINF261</t>
+  </si>
+  <si>
     <t>Techniques de communication</t>
   </si>
   <si>
+    <t>GINF262</t>
+  </si>
+  <si>
+    <t>Jonathan Ballouhey</t>
+  </si>
+  <si>
+    <t>Adolphe Pascal</t>
+  </si>
+  <si>
     <t>Technologies distribuées</t>
   </si>
   <si>
+    <t>GINF27</t>
+  </si>
+  <si>
     <t>Introduction a J2EE</t>
   </si>
   <si>
+    <t>GINF271</t>
+  </si>
+  <si>
     <t>Programmation en C#</t>
   </si>
   <si>
+    <t>GINF272</t>
+  </si>
+  <si>
+    <t>Henri Lefrançois</t>
+  </si>
+  <si>
+    <t>Joël  Daucourt</t>
+  </si>
+  <si>
     <t>Bases de données avancées 2 &amp; cloud</t>
   </si>
   <si>
+    <t>GINF28</t>
+  </si>
+  <si>
     <t>Gestion des données complexes</t>
   </si>
   <si>
+    <t>GINF281</t>
+  </si>
+  <si>
     <t>Cloud computing &amp; infogérance</t>
   </si>
   <si>
+    <t>GINF282</t>
+  </si>
+  <si>
+    <t>Martin Trottier</t>
+  </si>
+  <si>
+    <t>Désiré Choffard</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>Traitement de l'image</t>
   </si>
   <si>
+    <t>GINF29</t>
+  </si>
+  <si>
     <t>Traitement d'image</t>
   </si>
   <si>
+    <t>GINF291</t>
+  </si>
+  <si>
     <t>Processus stochastique</t>
   </si>
   <si>
+    <t>GINF292</t>
+  </si>
+  <si>
+    <t>Jean-Jacques Couvreur</t>
+  </si>
+  <si>
+    <t>Yolande Berlioz</t>
+  </si>
+  <si>
     <t>Programmation déclarative et TAV</t>
   </si>
   <si>
+    <t>GINF210</t>
+  </si>
+  <si>
     <t>Programmation déclarative</t>
   </si>
   <si>
+    <t>GINF2101</t>
+  </si>
+  <si>
     <t>Technique Algorethmique avancée</t>
   </si>
   <si>
+    <t>GINF2102</t>
+  </si>
+  <si>
+    <t>Grégoire Jeannin</t>
+  </si>
+  <si>
+    <t>Liliane Baume</t>
+  </si>
+  <si>
     <t>Sécurite et cryptographie</t>
   </si>
   <si>
+    <t>GINF211</t>
+  </si>
+  <si>
     <t>Sécurite des systémes</t>
   </si>
   <si>
+    <t>GINF2111</t>
+  </si>
+  <si>
     <t>cryptographie</t>
   </si>
   <si>
+    <t>GINF2112</t>
+  </si>
+  <si>
+    <t>Emmeline Duclos</t>
+  </si>
+  <si>
+    <t>Henriette Delon</t>
+  </si>
+  <si>
     <t>Management de l'entreprise</t>
   </si>
   <si>
+    <t>GINF212</t>
+  </si>
+  <si>
     <t>Economie et comptabilité 2</t>
   </si>
   <si>
+    <t>GINF2121</t>
+  </si>
+  <si>
     <t>Management de projet</t>
   </si>
   <si>
-    <t>GINF211</t>
-  </si>
-  <si>
-    <t>GINF212</t>
-  </si>
-  <si>
-    <t>GINF21</t>
-  </si>
-  <si>
-    <t>GINF22</t>
-  </si>
-  <si>
-    <t>GINF23</t>
-  </si>
-  <si>
-    <t>GINF24</t>
-  </si>
-  <si>
-    <t>GINF25</t>
-  </si>
-  <si>
-    <t>GINF26</t>
-  </si>
-  <si>
-    <t>GINF27</t>
-  </si>
-  <si>
-    <t>GINF28</t>
-  </si>
-  <si>
-    <t>GINF29</t>
-  </si>
-  <si>
-    <t>GINF210</t>
-  </si>
-  <si>
-    <t>ModuleSym</t>
-  </si>
-  <si>
-    <t>ElementModule1Sym</t>
-  </si>
-  <si>
-    <t>ElementModule2Sym</t>
-  </si>
-  <si>
-    <t>GINF221</t>
-  </si>
-  <si>
-    <t>GINF231</t>
-  </si>
-  <si>
-    <t>GINF241</t>
-  </si>
-  <si>
-    <t>GINF251</t>
-  </si>
-  <si>
-    <t>GINF261</t>
-  </si>
-  <si>
-    <t>GINF271</t>
-  </si>
-  <si>
-    <t>GINF281</t>
-  </si>
-  <si>
-    <t>GINF291</t>
-  </si>
-  <si>
-    <t>GINF2101</t>
-  </si>
-  <si>
-    <t>GINF2111</t>
-  </si>
-  <si>
-    <t>GINF2121</t>
-  </si>
-  <si>
-    <t>GINF222</t>
-  </si>
-  <si>
-    <t>GINF232</t>
-  </si>
-  <si>
-    <t>GINF242</t>
-  </si>
-  <si>
-    <t>GINF252</t>
-  </si>
-  <si>
-    <t>GINF262</t>
-  </si>
-  <si>
-    <t>GINF272</t>
-  </si>
-  <si>
-    <t>GINF282</t>
-  </si>
-  <si>
-    <t>GINF292</t>
-  </si>
-  <si>
-    <t>GINF2102</t>
-  </si>
-  <si>
-    <t>GINF2112</t>
-  </si>
-  <si>
     <t>GINF2122</t>
   </si>
   <si>
-    <t>GINF21A</t>
-  </si>
-  <si>
-    <t>GINF21B</t>
-  </si>
-  <si>
-    <t>DeprAttachement</t>
+    <t>Marie-Laure Manaudou</t>
+  </si>
+  <si>
+    <t>Nicoline Bougie</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -308,8 +398,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -623,323 +719,455 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="62.5546875" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
-    <col min="5" max="5" width="34.21875" customWidth="1"/>
-    <col min="6" max="6" width="31.88671875" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="62.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="34.28515625" customWidth="1"/>
+    <col min="6" max="6" width="31.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
         <v>53</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="D7" t="s">
         <v>54</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="E7" t="s">
         <v>55</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" ht="15">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" ht="15">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="F10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15">
       <c r="A11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="H12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="F13" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="G13" t="s">
-        <v>6</v>
-      </c>
-    </row>
+        <v>15</v>
+      </c>
+      <c r="H13" t="s">
+        <v>106</v>
+      </c>
+      <c r="I13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15"/>
+    <row r="15" spans="1:13" ht="15">
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" ht="15"/>
+    <row r="17" spans="11:11" ht="15"/>
+    <row r="18" spans="11:11" ht="15"/>
+    <row r="19" spans="11:11" ht="15"/>
+    <row r="20" spans="11:11" ht="15"/>
+    <row r="21" spans="11:11" ht="15">
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="11:11" ht="15"/>
+    <row r="23" spans="11:11" ht="15"/>
+    <row r="24" spans="11:11" ht="15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF0F096-C7C0-4F0E-B6BF-5B1ACDB7F5F8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{494FF3CB-A4E7-46F8-AC51-0077FFDD95EE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>